--- a/Adventure_works_data_dictionary.xlsx
+++ b/Adventure_works_data_dictionary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin.redling\Desktop\FIAP MBA\DATAOPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe.donola\Documents\GitHub\fiap_dataops\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F72F6FA-E5D7-436E-A604-6A6F33AA30C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9495" windowHeight="2640"/>
+    <workbookView xWindow="3015" yWindow="16080" windowWidth="20730" windowHeight="11160" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -101,9 +102,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>FistName</t>
-  </si>
-  <si>
     <t>MiddleName</t>
   </si>
   <si>
@@ -315,12 +313,15 @@
   </si>
   <si>
     <t>tinyint</t>
+  </si>
+  <si>
+    <t>FirstName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,15 +339,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -354,18 +361,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,12 +669,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -660,142 +682,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>259</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2">
         <v>259</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>8</v>
       </c>
     </row>
@@ -806,12 +828,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -822,324 +842,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
+      <c r="A2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
+      <c r="A6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
       </c>
       <c r="C8" s="2">
         <v>258</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" t="s">
-        <v>81</v>
+      <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
+      <c r="A10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C10" s="2">
         <v>261</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>83</v>
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="C11" s="2">
         <v>257</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
+      <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" t="s">
-        <v>86</v>
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>92</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="A23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1149,12 +1169,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1165,226 +1183,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>260</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="C5" s="2">
         <v>259</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>259</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>259</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>26</v>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>28</v>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>262</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1394,102 +1412,100 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
       </c>
       <c r="C4" s="2">
         <v>259</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1499,12 +1515,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1514,254 +1528,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>259</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1771,12 +1785,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1787,86 +1799,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="2">
         <v>259</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1876,12 +1888,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1891,72 +1901,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>8</v>
       </c>
     </row>
@@ -1966,12 +1976,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1981,86 +1989,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>259</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
     </row>
@@ -2070,12 +2078,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2086,86 +2092,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
     </row>
@@ -2175,12 +2181,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2190,143 +2194,144 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>8</v>
       </c>
     </row>
